--- a/Annotations/New/Magician.xlsx
+++ b/Annotations/New/Magician.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="MagicianV2" sheetId="1" r:id="rId1"/>
@@ -1848,14 +1848,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H310" sqref="H310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" style="2" customWidth="1"/>
@@ -1917,7 +1918,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.23280034891465784</v>
+        <v>0.90953627983366436</v>
       </c>
       <c r="B2" s="2">
         <v>190</v>
@@ -1947,7 +1948,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97226504222456334</v>
+        <v>0.15186515319235128</v>
       </c>
       <c r="B3" s="2">
         <v>204</v>
@@ -1968,7 +1969,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74502756587148256</v>
+        <v>0.58410028237525291</v>
       </c>
       <c r="B4" s="2">
         <v>66</v>
@@ -1995,7 +1996,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51154408339939084</v>
+        <v>0.90562057451003308</v>
       </c>
       <c r="B5" s="2">
         <v>23</v>
@@ -2019,7 +2020,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27171102755209797</v>
+        <v>0.547786650467606</v>
       </c>
       <c r="B6" s="2">
         <v>185</v>
@@ -2043,7 +2044,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41714063694734949</v>
+        <v>0.98428888400959724</v>
       </c>
       <c r="B7" s="2">
         <v>268</v>
@@ -2067,7 +2068,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36004773159940673</v>
+        <v>0.78130742874964265</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
@@ -2088,7 +2089,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60446615956034333</v>
+        <v>0.81601027861771369</v>
       </c>
       <c r="B9" s="2">
         <v>192</v>
@@ -2112,7 +2113,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32411280592630365</v>
+        <v>0.67528552536456521</v>
       </c>
       <c r="B10" s="2">
         <v>201</v>
@@ -2136,7 +2137,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69340503889700111</v>
+        <v>0.11395996653142348</v>
       </c>
       <c r="B11" s="2">
         <v>239</v>
@@ -2160,7 +2161,7 @@
     <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44291606363845271</v>
+        <v>0.63565688573358214</v>
       </c>
       <c r="B12" s="2">
         <v>232</v>
@@ -2184,7 +2185,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78814928723402655</v>
+        <v>0.2292789032049507</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -2205,7 +2206,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67757501347730276</v>
+        <v>0.20595172625318603</v>
       </c>
       <c r="B14" s="2">
         <v>238</v>
@@ -2235,7 +2236,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24704345521780391</v>
+        <v>0.65632574543518052</v>
       </c>
       <c r="B15" s="2">
         <v>306</v>
@@ -2256,7 +2257,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45491213920537166</v>
+        <v>0.98744789173658987</v>
       </c>
       <c r="B16" s="2">
         <v>233</v>
@@ -2280,7 +2281,7 @@
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85279178693885571</v>
+        <v>0.56353222126202251</v>
       </c>
       <c r="B17" s="2">
         <v>143</v>
@@ -2304,7 +2305,7 @@
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17954572836200722</v>
+        <v>0.73476600084818477</v>
       </c>
       <c r="B18" s="2">
         <v>103</v>
@@ -2328,7 +2329,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30692202405979563</v>
+        <v>0.47264812462855521</v>
       </c>
       <c r="B19" s="2">
         <v>78</v>
@@ -2352,7 +2353,7 @@
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93304514299296315</v>
+        <v>0.68450637899376177</v>
       </c>
       <c r="B20" s="2">
         <v>241</v>
@@ -2376,7 +2377,7 @@
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6973957549552821E-2</v>
+        <v>0.83795485723037921</v>
       </c>
       <c r="B21" s="2">
         <v>304</v>
@@ -2397,7 +2398,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41464241410190483</v>
+        <v>0.97047097862094556</v>
       </c>
       <c r="B22" s="2">
         <v>260</v>
@@ -2421,7 +2422,7 @@
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40972332163431935</v>
+        <v>0.62145695342621221</v>
       </c>
       <c r="B23" s="2">
         <v>110</v>
@@ -2445,7 +2446,7 @@
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64231907254745446</v>
+        <v>0.50355949564320468</v>
       </c>
       <c r="B24" s="2">
         <v>155</v>
@@ -2466,7 +2467,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35026280254570241</v>
+        <v>0.14670499354939026</v>
       </c>
       <c r="B25" s="2">
         <v>82</v>
@@ -2490,7 +2491,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65289249241130565</v>
+        <v>0.92981547215660276</v>
       </c>
       <c r="B26" s="2">
         <v>101</v>
@@ -2511,7 +2512,7 @@
     <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31930898974340316</v>
+        <v>0.32687663740687289</v>
       </c>
       <c r="B27" s="2">
         <v>64</v>
@@ -2535,7 +2536,7 @@
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28651323467944012</v>
+        <v>0.86308429272808984</v>
       </c>
       <c r="B28" s="2">
         <v>295</v>
@@ -2556,7 +2557,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51285968643154534</v>
+        <v>0.61862313490552823</v>
       </c>
       <c r="B29" s="2">
         <v>9</v>
@@ -2586,7 +2587,7 @@
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5517115099429335</v>
+        <v>1.6400306177809965E-2</v>
       </c>
       <c r="B30" s="2">
         <v>144</v>
@@ -2613,7 +2614,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1252394088542087</v>
+        <v>0.39405140001416505</v>
       </c>
       <c r="B31" s="2">
         <v>309</v>
@@ -2640,7 +2641,7 @@
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37371227997037271</v>
+        <v>0.90132597074775367</v>
       </c>
       <c r="B32" s="2">
         <v>102</v>
@@ -2667,7 +2668,7 @@
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78870693880529885</v>
+        <v>0.40552283110634268</v>
       </c>
       <c r="B33" s="2">
         <v>159</v>
@@ -2694,7 +2695,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91605690394706318</v>
+        <v>8.270996023298427E-2</v>
       </c>
       <c r="B34" s="2">
         <v>120</v>
@@ -2715,7 +2716,7 @@
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3935428397839935E-2</v>
+        <v>0.40354485761266112</v>
       </c>
       <c r="B35" s="2">
         <v>179</v>
@@ -2736,7 +2737,7 @@
     <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64749182430389129</v>
+        <v>0.43003989090585582</v>
       </c>
       <c r="B36" s="2">
         <v>296</v>
@@ -2760,7 +2761,7 @@
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30684868805628163</v>
+        <v>0.14526770890192653</v>
       </c>
       <c r="B37" s="2">
         <v>140</v>
@@ -2784,7 +2785,7 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73218419845971605</v>
+        <v>8.2861791086374814E-2</v>
       </c>
       <c r="B38" s="2">
         <v>217</v>
@@ -2811,7 +2812,7 @@
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75550969709998139</v>
+        <v>0.96401525567047508</v>
       </c>
       <c r="B39" s="2">
         <v>237</v>
@@ -2838,7 +2839,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90474507015545436</v>
+        <v>0.29526406674714412</v>
       </c>
       <c r="B40" s="2">
         <v>230</v>
@@ -2859,7 +2860,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81021842600433158</v>
+        <v>0.27254099115078234</v>
       </c>
       <c r="B41" s="2">
         <v>173</v>
@@ -2883,7 +2884,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8754551721631687</v>
+        <v>2.7854582584481147E-3</v>
       </c>
       <c r="B42" s="2">
         <v>58</v>
@@ -2907,7 +2908,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45422272753316195</v>
+        <v>0.11241107297987718</v>
       </c>
       <c r="B43" s="2">
         <v>68</v>
@@ -2934,7 +2935,7 @@
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24193647128269835</v>
+        <v>0.13699895861878408</v>
       </c>
       <c r="B44" s="2">
         <v>308</v>
@@ -2958,7 +2959,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9480337722690764E-2</v>
+        <v>0.73503544011514188</v>
       </c>
       <c r="B45" s="2">
         <v>286</v>
@@ -2982,7 +2983,7 @@
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50011606940992925</v>
+        <v>0.86911997534116758</v>
       </c>
       <c r="B46" s="2">
         <v>231</v>
@@ -3009,7 +3010,7 @@
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71901297765139072</v>
+        <v>0.30555928733054427</v>
       </c>
       <c r="B47" s="2">
         <v>281</v>
@@ -3033,7 +3034,7 @@
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7531727769317651</v>
+        <v>0.24792115782150426</v>
       </c>
       <c r="B48" s="2">
         <v>104</v>
@@ -3057,7 +3058,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95796614509943834</v>
+        <v>0.24515462320679504</v>
       </c>
       <c r="B49" s="2">
         <v>205</v>
@@ -3081,7 +3082,7 @@
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39973853472867593</v>
+        <v>0.18288953692303989</v>
       </c>
       <c r="B50" s="2">
         <v>175</v>
@@ -3105,7 +3106,7 @@
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4211177198906052</v>
+        <v>0.19098108005491954</v>
       </c>
       <c r="B51" s="2">
         <v>136</v>
@@ -3126,7 +3127,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31555240316763078</v>
+        <v>0.73675636297430735</v>
       </c>
       <c r="B52" s="2">
         <v>255</v>
@@ -3150,7 +3151,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34797055978226854</v>
+        <v>6.0424191387266069E-3</v>
       </c>
       <c r="B53" s="2">
         <v>189</v>
@@ -3171,7 +3172,7 @@
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48170163484545026</v>
+        <v>0.59399189864129898</v>
       </c>
       <c r="B54" s="2">
         <v>222</v>
@@ -3198,7 +3199,7 @@
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2454613534381744E-3</v>
+        <v>0.25945728217660391</v>
       </c>
       <c r="B55" s="2">
         <v>168</v>
@@ -3222,7 +3223,7 @@
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92036774939036925</v>
+        <v>0.69836838285921066</v>
       </c>
       <c r="B56" s="2">
         <v>126</v>
@@ -3246,7 +3247,7 @@
     <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85505646558276938</v>
+        <v>3.8881153255384548E-2</v>
       </c>
       <c r="B57" s="2">
         <v>29</v>
@@ -3270,7 +3271,7 @@
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91820457544420642</v>
+        <v>0.72534518635498335</v>
       </c>
       <c r="B58" s="2">
         <v>69</v>
@@ -3297,7 +3298,7 @@
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66321968941385268</v>
+        <v>0.63854237223259958</v>
       </c>
       <c r="B59" s="2">
         <v>200</v>
@@ -3318,7 +3319,7 @@
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21731740851716841</v>
+        <v>0.28136151880464322</v>
       </c>
       <c r="B60" s="2">
         <v>172</v>
@@ -3345,7 +3346,7 @@
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46390545604796629</v>
+        <v>0.88692754515734329</v>
       </c>
       <c r="B61" s="2">
         <v>147</v>
@@ -3372,7 +3373,7 @@
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12873021844756938</v>
+        <v>0.18586506358084709</v>
       </c>
       <c r="B62" s="2">
         <v>250</v>
@@ -3396,7 +3397,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69004221313874481</v>
+        <v>0.63378901092881845</v>
       </c>
       <c r="B63" s="2">
         <v>199</v>
@@ -3420,7 +3421,7 @@
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3813384387154003</v>
+        <v>0.37556078761804135</v>
       </c>
       <c r="B64" s="2">
         <v>42</v>
@@ -3447,7 +3448,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75418227918358782</v>
+        <v>0.87525176485739953</v>
       </c>
       <c r="B65" s="2">
         <v>289</v>
@@ -3471,7 +3472,7 @@
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.11051828663234897</v>
+        <v>0.78154323900170708</v>
       </c>
       <c r="B66" s="2">
         <v>248</v>
@@ -3498,7 +3499,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27140308785162137</v>
+        <v>0.8622341283929984</v>
       </c>
       <c r="B67" s="2">
         <v>4</v>
@@ -3519,7 +3520,7 @@
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60881253368305277</v>
+        <v>8.4506405387638761E-3</v>
       </c>
       <c r="B68" s="2">
         <v>33</v>
@@ -3543,7 +3544,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65436469089455329</v>
+        <v>0.5730705714885751</v>
       </c>
       <c r="B69" s="2">
         <v>229</v>
@@ -3564,7 +3565,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61819923718304981</v>
+        <v>0.55123577200039053</v>
       </c>
       <c r="B70" s="2">
         <v>87</v>
@@ -3588,7 +3589,7 @@
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8981663818273814</v>
+        <v>0.78668278696649341</v>
       </c>
       <c r="B71" s="2">
         <v>35</v>
@@ -3612,7 +3613,7 @@
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81842212718023444</v>
+        <v>0.6234004607404714</v>
       </c>
       <c r="B72" s="2">
         <v>169</v>
@@ -3633,7 +3634,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63413264782775636</v>
+        <v>0.17395391553785078</v>
       </c>
       <c r="B73" s="2">
         <v>44</v>
@@ -3657,7 +3658,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41097288301692292</v>
+        <v>0.37461369207659401</v>
       </c>
       <c r="B74" s="2">
         <v>117</v>
@@ -3678,7 +3679,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20128163374781149</v>
+        <v>0.89351389476876353</v>
       </c>
       <c r="B75" s="2">
         <v>31</v>
@@ -3702,7 +3703,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36272305029268714</v>
+        <v>0.90147086628110895</v>
       </c>
       <c r="B76" s="2">
         <v>46</v>
@@ -3726,7 +3727,7 @@
     <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40956206848496257</v>
+        <v>0.92538534154518126</v>
       </c>
       <c r="B77" s="2">
         <v>156</v>
@@ -3750,7 +3751,7 @@
     <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87765573424441456</v>
+        <v>0.18376921220102793</v>
       </c>
       <c r="B78" s="2">
         <v>181</v>
@@ -3774,7 +3775,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70933208671156533</v>
+        <v>0.74243371589768459</v>
       </c>
       <c r="B79" s="2">
         <v>135</v>
@@ -3798,7 +3799,7 @@
     <row r="80" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28623209025356755</v>
+        <v>4.7039240322870768E-2</v>
       </c>
       <c r="B80" s="2">
         <v>65</v>
@@ -3822,7 +3823,7 @@
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14290103451458835</v>
+        <v>0.308532629156819</v>
       </c>
       <c r="B81" s="2">
         <v>94</v>
@@ -3843,7 +3844,7 @@
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79457321585502605</v>
+        <v>0.23989741127941588</v>
       </c>
       <c r="B82" s="2">
         <v>41</v>
@@ -3867,7 +3868,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99638672995546795</v>
+        <v>0.42246554545823156</v>
       </c>
       <c r="B83" s="2">
         <v>283</v>
@@ -3891,7 +3892,7 @@
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6116467133002685E-2</v>
+        <v>0.2263357370697795</v>
       </c>
       <c r="B84" s="2">
         <v>244</v>
@@ -3915,7 +3916,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90357823590320951</v>
+        <v>0.45600311988312103</v>
       </c>
       <c r="B85" s="2">
         <v>183</v>
@@ -3936,7 +3937,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.167300264803341E-2</v>
+        <v>0.7907636172335043</v>
       </c>
       <c r="B86" s="2">
         <v>294</v>
@@ -3960,7 +3961,7 @@
     <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21215341298803347</v>
+        <v>0.29843776463034044</v>
       </c>
       <c r="B87" s="2">
         <v>245</v>
@@ -3984,7 +3985,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24590999110545986</v>
+        <v>0.99208771109566407</v>
       </c>
       <c r="B88" s="2">
         <v>272</v>
@@ -4008,7 +4009,7 @@
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46766358403582908</v>
+        <v>0.32021586927088219</v>
       </c>
       <c r="B89" s="2">
         <v>292</v>
@@ -4029,7 +4030,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45934539292322307</v>
+        <v>0.48210658682906526</v>
       </c>
       <c r="B90" s="2">
         <v>106</v>
@@ -4053,7 +4054,7 @@
     <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2598341962193671E-2</v>
+        <v>0.68714837941536488</v>
       </c>
       <c r="B91" s="2">
         <v>142</v>
@@ -4080,7 +4081,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2099636618089552</v>
+        <v>0.61728673024532055</v>
       </c>
       <c r="B92" s="2">
         <v>261</v>
@@ -4101,7 +4102,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40025046049742508</v>
+        <v>0.94741857888512615</v>
       </c>
       <c r="B93" s="2">
         <v>148</v>
@@ -4128,7 +4129,7 @@
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4528980369332753E-2</v>
+        <v>0.11697316627958987</v>
       </c>
       <c r="B94" s="2">
         <v>182</v>
@@ -4149,7 +4150,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20355009009652769</v>
+        <v>0.22390747244176468</v>
       </c>
       <c r="B95" s="2">
         <v>12</v>
@@ -4173,7 +4174,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80796933101882062</v>
+        <v>0.14300579971146443</v>
       </c>
       <c r="B96" s="2">
         <v>235</v>
@@ -4194,7 +4195,7 @@
     <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1635762545463777E-2</v>
+        <v>0.31480292841131707</v>
       </c>
       <c r="B97" s="2">
         <v>299</v>
@@ -4218,7 +4219,7 @@
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37472921500503786</v>
+        <v>0.44727538883053286</v>
       </c>
       <c r="B98" s="2">
         <v>32</v>
@@ -4245,7 +4246,7 @@
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82881938275823674</v>
+        <v>0.47170601121717626</v>
       </c>
       <c r="B99" s="2">
         <v>74</v>
@@ -4269,7 +4270,7 @@
     <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76713664019350025</v>
+        <v>4.4208484822438887E-4</v>
       </c>
       <c r="B100" s="2">
         <v>38</v>
@@ -4293,7 +4294,7 @@
     <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48629492821436093</v>
+        <v>0.85089715592624537</v>
       </c>
       <c r="B101" s="2">
         <v>236</v>
@@ -4314,7 +4315,7 @@
     <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93843740639252338</v>
+        <v>0.78731698368841707</v>
       </c>
       <c r="B102" s="2">
         <v>37</v>
@@ -4335,7 +4336,7 @@
     <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10691243446063525</v>
+        <v>0.78111081063492893</v>
       </c>
       <c r="B103" s="2">
         <v>227</v>
@@ -4359,7 +4360,7 @@
     <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15579037333039925</v>
+        <v>0.28896036541235037</v>
       </c>
       <c r="B104" s="2">
         <v>119</v>
@@ -4386,7 +4387,7 @@
     <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38622206171120488</v>
+        <v>0.94849440101467097</v>
       </c>
       <c r="B105" s="2">
         <v>114</v>
@@ -4413,7 +4414,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52823402378494022</v>
+        <v>0.47814860962912709</v>
       </c>
       <c r="B106" s="2">
         <v>125</v>
@@ -4443,7 +4444,7 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4247470394880174</v>
+        <v>0.7005402913792268</v>
       </c>
       <c r="B107" s="2">
         <v>154</v>
@@ -4464,7 +4465,7 @@
     <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60408645805243533</v>
+        <v>0.24113818466846904</v>
       </c>
       <c r="B108" s="2">
         <v>28</v>
@@ -4488,7 +4489,7 @@
     <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72686299426667533</v>
+        <v>0.97689657394840967</v>
       </c>
       <c r="B109" s="2">
         <v>112</v>
@@ -4512,7 +4513,7 @@
     <row r="110" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7069744067937669E-2</v>
+        <v>0.94978705300477451</v>
       </c>
       <c r="B110" s="2">
         <v>277</v>
@@ -4536,7 +4537,7 @@
     <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41128287555423659</v>
+        <v>0.94758685200858739</v>
       </c>
       <c r="B111" s="2">
         <v>34</v>
@@ -4557,7 +4558,7 @@
     <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3111149218938039E-2</v>
+        <v>0.61784877072405497</v>
       </c>
       <c r="B112" s="2">
         <v>49</v>
@@ -4578,7 +4579,7 @@
     <row r="113" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20696870057942551</v>
+        <v>0.19602611710953932</v>
       </c>
       <c r="B113" s="2">
         <v>297</v>
@@ -4602,7 +4603,7 @@
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43015440392736515</v>
+        <v>0.94470179133599497</v>
       </c>
       <c r="B114" s="2">
         <v>224</v>
@@ -4623,7 +4624,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4569198249901789E-2</v>
+        <v>0.82748004256686503</v>
       </c>
       <c r="B115" s="2">
         <v>150</v>
@@ -4647,7 +4648,7 @@
     <row r="116" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70809784676835819</v>
+        <v>0.90863851125506567</v>
       </c>
       <c r="B116" s="2">
         <v>141</v>
@@ -4674,7 +4675,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11941929274776808</v>
+        <v>0.58781377584151306</v>
       </c>
       <c r="B117" s="2">
         <v>162</v>
@@ -4701,7 +4702,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89523862085477701</v>
+        <v>0.59203840384186202</v>
       </c>
       <c r="B118" s="2">
         <v>40</v>
@@ -4725,7 +4726,7 @@
     <row r="119" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68440190018479674</v>
+        <v>0.71533867949328045</v>
       </c>
       <c r="B119" s="2">
         <v>53</v>
@@ -4749,7 +4750,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14189261168586598</v>
+        <v>6.6712473423170437E-2</v>
       </c>
       <c r="B120" s="2">
         <v>6</v>
@@ -4770,7 +4771,7 @@
     <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31794887340863209</v>
+        <v>0.44528549667323269</v>
       </c>
       <c r="B121" s="2">
         <v>139</v>
@@ -4794,7 +4795,7 @@
     <row r="122" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.258046084541247</v>
+        <v>0.78870995396123267</v>
       </c>
       <c r="B122" s="2">
         <v>8</v>
@@ -4818,7 +4819,7 @@
     <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79457615862038111</v>
+        <v>0.6735128816791166</v>
       </c>
       <c r="B123" s="2">
         <v>206</v>
@@ -4839,7 +4840,7 @@
     <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77196463936852566</v>
+        <v>5.5132774334431534E-2</v>
       </c>
       <c r="B124" s="2">
         <v>108</v>
@@ -4863,7 +4864,7 @@
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62677971549154421</v>
+        <v>0.9037716803446415</v>
       </c>
       <c r="B125" s="2">
         <v>271</v>
@@ -4893,7 +4894,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74505095751097417</v>
+        <v>0.45722267975535602</v>
       </c>
       <c r="B126" s="2">
         <v>171</v>
@@ -4914,7 +4915,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4750125058259167</v>
+        <v>0.95920204295985534</v>
       </c>
       <c r="B127" s="2">
         <v>57</v>
@@ -4938,7 +4939,7 @@
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9012082211620136</v>
+        <v>0.96927005807003508</v>
       </c>
       <c r="B128" s="2">
         <v>18</v>
@@ -4959,7 +4960,7 @@
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46229315069260679</v>
+        <v>0.75628419322480467</v>
       </c>
       <c r="B129" s="2">
         <v>118</v>
@@ -4980,7 +4981,7 @@
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.15434330018521225</v>
+        <v>0.89564884812685619</v>
       </c>
       <c r="B130" s="2">
         <v>269</v>
@@ -5004,7 +5005,7 @@
     <row r="131" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46849557095792427</v>
+        <v>0.78521357201576525</v>
       </c>
       <c r="B131" s="2">
         <v>96</v>
@@ -5025,7 +5026,7 @@
     <row r="132" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84821147562974364</v>
+        <v>0.25666418695137072</v>
       </c>
       <c r="B132" s="2">
         <v>21</v>
@@ -5049,7 +5050,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13562606476313332</v>
+        <v>3.7746960055891843E-2</v>
       </c>
       <c r="B133" s="2">
         <v>111</v>
@@ -5076,7 +5077,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31914009609066218</v>
+        <v>0.59828174480952101</v>
       </c>
       <c r="B134" s="2">
         <v>307</v>
@@ -5100,7 +5101,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96240165633920027</v>
+        <v>0.30870213978651584</v>
       </c>
       <c r="B135" s="2">
         <v>161</v>
@@ -5124,7 +5125,7 @@
     <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1597668882452736E-2</v>
+        <v>2.3719680029322454E-2</v>
       </c>
       <c r="B136" s="2">
         <v>146</v>
@@ -5145,7 +5146,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8691112453940496</v>
+        <v>2.8341456570527779E-2</v>
       </c>
       <c r="B137" s="2">
         <v>258</v>
@@ -5169,7 +5170,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68712426158828466</v>
+        <v>0.95472936177528545</v>
       </c>
       <c r="B138" s="2">
         <v>279</v>
@@ -5193,7 +5194,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71698041238877441</v>
+        <v>0.94795205234782343</v>
       </c>
       <c r="B139" s="2">
         <v>47</v>
@@ -5217,7 +5218,7 @@
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1903331081464803</v>
+        <v>0.76521624279511391</v>
       </c>
       <c r="B140" s="2">
         <v>214</v>
@@ -5241,7 +5242,7 @@
     <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8239155488194445E-3</v>
+        <v>0.44806270754511046</v>
       </c>
       <c r="B141" s="2">
         <v>76</v>
@@ -5262,7 +5263,7 @@
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29345257306909445</v>
+        <v>0.54607020182361243</v>
       </c>
       <c r="B142" s="2">
         <v>193</v>
@@ -5286,7 +5287,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63141849292503838</v>
+        <v>0.11106085655590614</v>
       </c>
       <c r="B143" s="2">
         <v>151</v>
@@ -5310,7 +5311,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94077543676579167</v>
+        <v>0.89156437532263877</v>
       </c>
       <c r="B144" s="2">
         <v>17</v>
@@ -5331,7 +5332,7 @@
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78239849792587945</v>
+        <v>0.14826414196031723</v>
       </c>
       <c r="B145" s="2">
         <v>81</v>
@@ -5352,7 +5353,7 @@
     <row r="146" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58452678128723234</v>
+        <v>0.69008235094413006</v>
       </c>
       <c r="B146" s="2">
         <v>26</v>
@@ -5376,7 +5377,7 @@
     <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97920153352591499</v>
+        <v>0.65949314756605359</v>
       </c>
       <c r="B147" s="2">
         <v>84</v>
@@ -5400,7 +5401,7 @@
     <row r="148" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92274822596831785</v>
+        <v>0.45526413933606924</v>
       </c>
       <c r="B148" s="2">
         <v>212</v>
@@ -5430,7 +5431,7 @@
     <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71856826368593019</v>
+        <v>0.3082431786713038</v>
       </c>
       <c r="B149" s="2">
         <v>70</v>
@@ -5451,7 +5452,7 @@
     <row r="150" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28916303023555379</v>
+        <v>1.0239968630945118E-2</v>
       </c>
       <c r="B150" s="2">
         <v>262</v>
@@ -5475,7 +5476,7 @@
     <row r="151" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0724821414534134E-2</v>
+        <v>0.30779362292186085</v>
       </c>
       <c r="B151" s="2">
         <v>253</v>
@@ -5499,7 +5500,7 @@
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81841054838578953</v>
+        <v>0.45069270095968383</v>
       </c>
       <c r="B152" s="2">
         <v>152</v>
@@ -5526,7 +5527,7 @@
     <row r="153" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98127612454690982</v>
+        <v>0.92310587729188254</v>
       </c>
       <c r="B153" s="2">
         <v>43</v>
@@ -5547,7 +5548,7 @@
     <row r="154" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16714345854010682</v>
+        <v>1.9464055465596708E-3</v>
       </c>
       <c r="B154" s="2">
         <v>75</v>
@@ -5571,7 +5572,7 @@
     <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18227798198805323</v>
+        <v>0.75081753536964613</v>
       </c>
       <c r="B155" s="2">
         <v>115</v>
@@ -5595,7 +5596,7 @@
     <row r="156" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88117232766308806</v>
+        <v>0.94354051080337886</v>
       </c>
       <c r="B156" s="2">
         <v>61</v>
@@ -5616,7 +5617,7 @@
     <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64765166501804394</v>
+        <v>0.74515284577206276</v>
       </c>
       <c r="B157" s="2">
         <v>91</v>
@@ -5640,7 +5641,7 @@
     <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17614808532980542</v>
+        <v>0.15916217679734967</v>
       </c>
       <c r="B158" s="2">
         <v>113</v>
@@ -5664,7 +5665,7 @@
     <row r="159" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30464271934689668</v>
+        <v>0.94341545312150143</v>
       </c>
       <c r="B159" s="2">
         <v>211</v>
@@ -5685,7 +5686,7 @@
     <row r="160" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7362957683778445</v>
+        <v>0.58173472446235008</v>
       </c>
       <c r="B160" s="2">
         <v>247</v>
@@ -5709,7 +5710,7 @@
     <row r="161" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3974437019570534E-3</v>
+        <v>0.92740123011743814</v>
       </c>
       <c r="B161" s="2">
         <v>293</v>
@@ -5736,7 +5737,7 @@
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36452049348133619</v>
+        <v>9.3428446073069771E-2</v>
       </c>
       <c r="B162" s="2">
         <v>83</v>
@@ -5757,7 +5758,7 @@
     <row r="163" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88156086600369832</v>
+        <v>0.73248199529936409</v>
       </c>
       <c r="B163" s="2">
         <v>170</v>
@@ -5778,7 +5779,7 @@
     <row r="164" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20475642423727236</v>
+        <v>2.6952955222365294E-2</v>
       </c>
       <c r="B164" s="2">
         <v>174</v>
@@ -5802,7 +5803,7 @@
     <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21650562065760515</v>
+        <v>0.98243839535119126</v>
       </c>
       <c r="B165" s="2">
         <v>267</v>
@@ -5826,7 +5827,7 @@
     <row r="166" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17983221046126829</v>
+        <v>0.94478864795584094</v>
       </c>
       <c r="B166" s="2">
         <v>240</v>
@@ -5847,7 +5848,7 @@
     <row r="167" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41810795580032256</v>
+        <v>0.61604484714231311</v>
       </c>
       <c r="B167" s="2">
         <v>164</v>
@@ -5871,7 +5872,7 @@
     <row r="168" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30953764703509845</v>
+        <v>0.88998634251283326</v>
       </c>
       <c r="B168" s="2">
         <v>188</v>
@@ -5901,7 +5902,7 @@
     <row r="169" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50549297539858085</v>
+        <v>0.33467731071167794</v>
       </c>
       <c r="B169" s="2">
         <v>275</v>
@@ -5928,7 +5929,7 @@
     <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58041345921540333</v>
+        <v>0.62542293004498073</v>
       </c>
       <c r="B170" s="2">
         <v>166</v>
@@ -5955,7 +5956,7 @@
     <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16145798191537475</v>
+        <v>0.80516454048849606</v>
       </c>
       <c r="B171" s="2">
         <v>264</v>
@@ -5979,7 +5980,7 @@
     <row r="172" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57251300669238625</v>
+        <v>0.46102758085075712</v>
       </c>
       <c r="B172" s="2">
         <v>208</v>
@@ -6003,7 +6004,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1426274620976673</v>
+        <v>0.8097216338930936</v>
       </c>
       <c r="B173" s="2">
         <v>132</v>
@@ -6027,7 +6028,7 @@
     <row r="174" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97052758710315445</v>
+        <v>0.42236882459646041</v>
       </c>
       <c r="B174" s="2">
         <v>160</v>
@@ -6051,7 +6052,7 @@
     <row r="175" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69153173506373788</v>
+        <v>0.61278841542179519</v>
       </c>
       <c r="B175" s="2">
         <v>10</v>
@@ -6075,7 +6076,7 @@
     <row r="176" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68557382644943554</v>
+        <v>0.61978637581639218</v>
       </c>
       <c r="B176" s="2">
         <v>24</v>
@@ -6099,7 +6100,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4421295194866022E-2</v>
+        <v>0.41397307108227299</v>
       </c>
       <c r="B177" s="2">
         <v>285</v>
@@ -6126,7 +6127,7 @@
     <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11473614158717449</v>
+        <v>6.0911510187190099E-2</v>
       </c>
       <c r="B178" s="2">
         <v>109</v>
@@ -6150,7 +6151,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47021060814062998</v>
+        <v>0.72019427642249945</v>
       </c>
       <c r="B179" s="2">
         <v>7</v>
@@ -6177,7 +6178,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95113912254941846</v>
+        <v>0.92165144532543419</v>
       </c>
       <c r="B180" s="2">
         <v>196</v>
@@ -6201,7 +6202,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67741804039466058</v>
+        <v>0.97936191868772193</v>
       </c>
       <c r="B181" s="2">
         <v>30</v>
@@ -6225,7 +6226,7 @@
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53601551204387543</v>
+        <v>0.34359029467907742</v>
       </c>
       <c r="B182" s="2">
         <v>301</v>
@@ -6246,7 +6247,7 @@
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45341902372781806</v>
+        <v>0.38082804981879026</v>
       </c>
       <c r="B183" s="2">
         <v>218</v>
@@ -6270,7 +6271,7 @@
     <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5202766640041746</v>
+        <v>0.19231299099965282</v>
       </c>
       <c r="B184" s="2">
         <v>92</v>
@@ -6291,7 +6292,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5350712561240099E-2</v>
+        <v>0.29134754867766877</v>
       </c>
       <c r="B185" s="2">
         <v>116</v>
@@ -6315,7 +6316,7 @@
     <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89083360286948132</v>
+        <v>0.8400157517858835</v>
       </c>
       <c r="B186" s="2">
         <v>210</v>
@@ -6339,7 +6340,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27282952429930118</v>
+        <v>0.28550189834944761</v>
       </c>
       <c r="B187" s="2">
         <v>223</v>
@@ -6363,7 +6364,7 @@
     <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31235150224691788</v>
+        <v>3.5272841665175192E-2</v>
       </c>
       <c r="B188" s="2">
         <v>243</v>
@@ -6384,7 +6385,7 @@
     <row r="189" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25606278391488946</v>
+        <v>8.221518712436604E-2</v>
       </c>
       <c r="B189" s="2">
         <v>298</v>
@@ -6405,7 +6406,7 @@
     <row r="190" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59595904590771909</v>
+        <v>0.75309962373496064</v>
       </c>
       <c r="B190" s="2">
         <v>54</v>
@@ -6432,7 +6433,7 @@
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63140262643602052</v>
+        <v>0.54911517193841231</v>
       </c>
       <c r="B191" s="2">
         <v>290</v>
@@ -6453,7 +6454,7 @@
     <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15429548491764344</v>
+        <v>0.14689557089286964</v>
       </c>
       <c r="B192" s="2">
         <v>98</v>
@@ -6477,7 +6478,7 @@
     <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72493492772154433</v>
+        <v>0.13259821033239205</v>
       </c>
       <c r="B193" s="2">
         <v>93</v>
@@ -6498,7 +6499,7 @@
     <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.92756618445972183</v>
+        <v>0.15419056986640389</v>
       </c>
       <c r="B194" s="2">
         <v>133</v>
@@ -6525,7 +6526,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69272271264736485</v>
+        <v>0.2094500480758682</v>
       </c>
       <c r="B195" s="2">
         <v>105</v>
@@ -6549,7 +6550,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42379595829897942</v>
+        <v>0.55281695078181481</v>
       </c>
       <c r="B196" s="2">
         <v>194</v>
@@ -6573,7 +6574,7 @@
     <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14331286424809941</v>
+        <v>0.12958060479105393</v>
       </c>
       <c r="B197" s="2">
         <v>226</v>
@@ -6597,7 +6598,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9421333764665665E-2</v>
+        <v>0.89856228382042813</v>
       </c>
       <c r="B198" s="2">
         <v>129</v>
@@ -6618,7 +6619,7 @@
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13027664267823758</v>
+        <v>1.3356563387942E-2</v>
       </c>
       <c r="B199" s="2">
         <v>89</v>
@@ -6642,7 +6643,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34707412778445201</v>
+        <v>9.745934896502717E-2</v>
       </c>
       <c r="B200" s="2">
         <v>209</v>
@@ -6666,7 +6667,7 @@
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11265631016425914</v>
+        <v>0.97438166918402869</v>
       </c>
       <c r="B201" s="2">
         <v>22</v>
@@ -6690,7 +6691,7 @@
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46180673284073526</v>
+        <v>0.7111017814089966</v>
       </c>
       <c r="B202" s="2">
         <v>203</v>
@@ -6714,7 +6715,7 @@
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29351570527111992</v>
+        <v>3.0975193896793929E-3</v>
       </c>
       <c r="B203" s="2">
         <v>77</v>
@@ -6735,7 +6736,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96816773241539145</v>
+        <v>0.88931087965522948</v>
       </c>
       <c r="B204" s="2">
         <v>122</v>
@@ -6759,7 +6760,7 @@
     <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48948824439542171</v>
+        <v>0.58504136687964392</v>
       </c>
       <c r="B205" s="2">
         <v>270</v>
@@ -6786,7 +6787,7 @@
     <row r="206" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63784128865930612</v>
+        <v>0.16286702422049049</v>
       </c>
       <c r="B206" s="2">
         <v>25</v>
@@ -6810,7 +6811,7 @@
     <row r="207" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32245832504827288</v>
+        <v>0.79759491819480322</v>
       </c>
       <c r="B207" s="2">
         <v>52</v>
@@ -6834,7 +6835,7 @@
     <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79542631964198096</v>
+        <v>0.41613552227363415</v>
       </c>
       <c r="B208" s="2">
         <v>48</v>
@@ -6855,7 +6856,7 @@
     <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40265074250722821</v>
+        <v>0.45163030379943547</v>
       </c>
       <c r="B209" s="2">
         <v>184</v>
@@ -6879,7 +6880,7 @@
     <row r="210" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8924948704951835</v>
+        <v>0.59937989089483368</v>
       </c>
       <c r="B210" s="2">
         <v>59</v>
@@ -6900,7 +6901,7 @@
     <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92357689212754213</v>
+        <v>0.84305022361049398</v>
       </c>
       <c r="B211" s="2">
         <v>157</v>
@@ -6930,7 +6931,7 @@
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4392274507041307E-2</v>
+        <v>0.1327901239163215</v>
       </c>
       <c r="B212" s="2">
         <v>282</v>
@@ -6951,7 +6952,7 @@
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3811544949782667</v>
+        <v>0.19359019550255174</v>
       </c>
       <c r="B213" s="2">
         <v>259</v>
@@ -6972,7 +6973,7 @@
     <row r="214" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35018645515992253</v>
+        <v>0.57260418325879081</v>
       </c>
       <c r="B214" s="2">
         <v>130</v>
@@ -6996,7 +6997,7 @@
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31659254769616496</v>
+        <v>0.23153687923773136</v>
       </c>
       <c r="B215" s="2">
         <v>257</v>
@@ -7020,7 +7021,7 @@
     <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95659829401746521</v>
+        <v>0.21259608725895274</v>
       </c>
       <c r="B216" s="2">
         <v>288</v>
@@ -7041,7 +7042,7 @@
     <row r="217" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73611894691150015</v>
+        <v>0.35174211137213418</v>
       </c>
       <c r="B217" s="2">
         <v>163</v>
@@ -7068,7 +7069,7 @@
     <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32815329044421648</v>
+        <v>0.94440735884662408</v>
       </c>
       <c r="B218" s="2">
         <v>3</v>
@@ -7089,7 +7090,7 @@
     <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21895686000789116</v>
+        <v>0.10327996363335612</v>
       </c>
       <c r="B219" s="2">
         <v>50</v>
@@ -7110,7 +7111,7 @@
     <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93749011335236598</v>
+        <v>0.59039945662498006</v>
       </c>
       <c r="B220" s="2">
         <v>39</v>
@@ -7134,7 +7135,7 @@
     <row r="221" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52844491053105469</v>
+        <v>0.36503586486028927</v>
       </c>
       <c r="B221" s="2">
         <v>88</v>
@@ -7158,7 +7159,7 @@
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8005148712417578</v>
+        <v>0.3238079284647738</v>
       </c>
       <c r="B222" s="2">
         <v>123</v>
@@ -7179,7 +7180,7 @@
     <row r="223" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2074846059003144E-2</v>
+        <v>0.50897889309575184</v>
       </c>
       <c r="B223" s="2">
         <v>284</v>
@@ -7203,7 +7204,7 @@
     <row r="224" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7520244084399792E-2</v>
+        <v>0.25159748600511855</v>
       </c>
       <c r="B224" s="2">
         <v>195</v>
@@ -7227,7 +7228,7 @@
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0087780814826428E-2</v>
+        <v>0.67364166654389257</v>
       </c>
       <c r="B225" s="2">
         <v>280</v>
@@ -7254,7 +7255,7 @@
     <row r="226" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0334492987060737E-2</v>
+        <v>0.7315321008534581</v>
       </c>
       <c r="B226" s="2">
         <v>167</v>
@@ -7275,7 +7276,7 @@
     <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31867237985216401</v>
+        <v>0.94155332979748985</v>
       </c>
       <c r="B227" s="2">
         <v>90</v>
@@ -7296,7 +7297,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94621536986425692</v>
+        <v>0.27310182334738342</v>
       </c>
       <c r="B228" s="2">
         <v>158</v>
@@ -7317,7 +7318,7 @@
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36324865272169971</v>
+        <v>3.2497587718435139E-2</v>
       </c>
       <c r="B229" s="2">
         <v>202</v>
@@ -7338,7 +7339,7 @@
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22544605299636689</v>
+        <v>0.99654699717289963</v>
       </c>
       <c r="B230" s="2">
         <v>273</v>
@@ -7359,7 +7360,7 @@
     <row r="231" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26836537124549009</v>
+        <v>0.20625676508387769</v>
       </c>
       <c r="B231" s="2">
         <v>60</v>
@@ -7380,7 +7381,7 @@
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.777980161390861E-2</v>
+        <v>0.44344049076815606</v>
       </c>
       <c r="B232" s="2">
         <v>15</v>
@@ -7404,7 +7405,7 @@
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51851944036093345</v>
+        <v>0.4069951764181593</v>
       </c>
       <c r="B233" s="2">
         <v>291</v>
@@ -7428,7 +7429,7 @@
     <row r="234" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16981518742078239</v>
+        <v>8.2001671228439599E-2</v>
       </c>
       <c r="B234" s="2">
         <v>187</v>
@@ -7452,7 +7453,7 @@
     <row r="235" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58571702077559318</v>
+        <v>0.67873729739941013</v>
       </c>
       <c r="B235" s="2">
         <v>20</v>
@@ -7473,7 +7474,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79644438615478452</v>
+        <v>0.50200616569319878</v>
       </c>
       <c r="B236" s="2">
         <v>55</v>
@@ -7494,7 +7495,7 @@
     <row r="237" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17146605135412563</v>
+        <v>0.93670013912320937</v>
       </c>
       <c r="B237" s="2">
         <v>97</v>
@@ -7518,7 +7519,7 @@
     <row r="238" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83029675890394272</v>
+        <v>0.24877433497405488</v>
       </c>
       <c r="B238" s="2">
         <v>67</v>
@@ -7542,7 +7543,7 @@
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42936409032118683</v>
+        <v>0.65351228746100998</v>
       </c>
       <c r="B239" s="2">
         <v>107</v>
@@ -7566,7 +7567,7 @@
     <row r="240" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45840146275440707</v>
+        <v>0.75830981241587647</v>
       </c>
       <c r="B240" s="2">
         <v>27</v>
@@ -7593,7 +7594,7 @@
     <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75573417825598987</v>
+        <v>0.38969986753624319</v>
       </c>
       <c r="B241" s="2">
         <v>220</v>
@@ -7617,7 +7618,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28194276636262749</v>
+        <v>4.2092511165403135E-2</v>
       </c>
       <c r="B242" s="2">
         <v>302</v>
@@ -7641,7 +7642,7 @@
     <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39427975006920968</v>
+        <v>0.12271722993446665</v>
       </c>
       <c r="B243" s="2">
         <v>13</v>
@@ -7662,7 +7663,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73885882873786546</v>
+        <v>0.22947206096000294</v>
       </c>
       <c r="B244" s="2">
         <v>153</v>
@@ -7683,7 +7684,7 @@
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27310503307627587</v>
+        <v>9.4497323082318618E-2</v>
       </c>
       <c r="B245" s="2">
         <v>85</v>
@@ -7707,7 +7708,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77176736918673938</v>
+        <v>8.9191680761235848E-4</v>
       </c>
       <c r="B246" s="2">
         <v>79</v>
@@ -7728,7 +7729,7 @@
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80648447818836511</v>
+        <v>0.96795095238809914</v>
       </c>
       <c r="B247" s="2">
         <v>134</v>
@@ -7755,7 +7756,7 @@
     <row r="248" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28158195862596014</v>
+        <v>0.93474492026690548</v>
       </c>
       <c r="B248" s="2">
         <v>180</v>
@@ -7779,7 +7780,7 @@
     <row r="249" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68361110175982209</v>
+        <v>0.28213529636965906</v>
       </c>
       <c r="B249" s="2">
         <v>73</v>
@@ -7806,7 +7807,7 @@
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63293011430631341</v>
+        <v>0.82341839482340873</v>
       </c>
       <c r="B250" s="2">
         <v>86</v>
@@ -7830,7 +7831,7 @@
     <row r="251" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52468831292663831</v>
+        <v>0.9011947818694005</v>
       </c>
       <c r="B251" s="2">
         <v>72</v>
@@ -7854,7 +7855,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57501976216615436</v>
+        <v>0.85336188515027034</v>
       </c>
       <c r="B252" s="2">
         <v>80</v>
@@ -7875,7 +7876,7 @@
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27935256361836502</v>
+        <v>0.43247611947718878</v>
       </c>
       <c r="B253" s="2">
         <v>1</v>
@@ -7896,7 +7897,7 @@
     <row r="254" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99576859658008332</v>
+        <v>0.721544291490816</v>
       </c>
       <c r="B254" s="2">
         <v>56</v>
@@ -7920,7 +7921,7 @@
     <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33728037609880646</v>
+        <v>0.47919601010731327</v>
       </c>
       <c r="B255" s="2">
         <v>149</v>
@@ -7944,7 +7945,7 @@
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36325545470303766</v>
+        <v>0.24494476441320123</v>
       </c>
       <c r="B256" s="2">
         <v>71</v>
@@ -7968,7 +7969,7 @@
     <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85278783978500583</v>
+        <v>3.6056116933733895E-2</v>
       </c>
       <c r="B257" s="2">
         <v>178</v>
@@ -7992,7 +7993,7 @@
     <row r="258" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A310" ca="1" si="4">RAND()</f>
-        <v>0.4753769745452443</v>
+        <v>8.0093663675048221E-2</v>
       </c>
       <c r="B258" s="2">
         <v>221</v>
@@ -8016,7 +8017,7 @@
     <row r="259" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92544850251553989</v>
+        <v>0.95333469482427347</v>
       </c>
       <c r="B259" s="2">
         <v>5</v>
@@ -8037,7 +8038,7 @@
     <row r="260" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19070318978562373</v>
+        <v>0.62523883105938194</v>
       </c>
       <c r="B260" s="2">
         <v>254</v>
@@ -8058,7 +8059,7 @@
     <row r="261" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92299995434513338</v>
+        <v>0.68244193109037388</v>
       </c>
       <c r="B261" s="2">
         <v>100</v>
@@ -8079,7 +8080,7 @@
     <row r="262" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40295938644797502</v>
+        <v>0.42574151525896986</v>
       </c>
       <c r="B262" s="2">
         <v>191</v>
@@ -8103,7 +8104,7 @@
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83940802718375118</v>
+        <v>0.82852930013748161</v>
       </c>
       <c r="B263" s="2">
         <v>197</v>
@@ -8127,7 +8128,7 @@
     <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81090761846374948</v>
+        <v>0.1958063251794715</v>
       </c>
       <c r="B264" s="2">
         <v>127</v>
@@ -8151,7 +8152,7 @@
     <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5180270647716233</v>
+        <v>5.3444933426000096E-2</v>
       </c>
       <c r="B265" s="2">
         <v>14</v>
@@ -8172,7 +8173,7 @@
     <row r="266" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26240742138402762</v>
+        <v>0.20049854223701735</v>
       </c>
       <c r="B266" s="2">
         <v>138</v>
@@ -8196,7 +8197,7 @@
     <row r="267" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3783171721377625</v>
+        <v>0.51229542915741388</v>
       </c>
       <c r="B267" s="2">
         <v>219</v>
@@ -8220,7 +8221,7 @@
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24781691393388583</v>
+        <v>6.2871937055793303E-2</v>
       </c>
       <c r="B268" s="2">
         <v>256</v>
@@ -8244,7 +8245,7 @@
     <row r="269" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30910146788483195</v>
+        <v>0.48053031819200287</v>
       </c>
       <c r="B269" s="2">
         <v>213</v>
@@ -8268,7 +8269,7 @@
     <row r="270" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29781806758513474</v>
+        <v>0.18944622391315058</v>
       </c>
       <c r="B270" s="2">
         <v>63</v>
@@ -8292,7 +8293,7 @@
     <row r="271" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58646154702273667</v>
+        <v>0.4458569737812359</v>
       </c>
       <c r="B271" s="2">
         <v>266</v>
@@ -8313,7 +8314,7 @@
     <row r="272" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87823161901496771</v>
+        <v>0.45373020557815069</v>
       </c>
       <c r="B272" s="2">
         <v>278</v>
@@ -8337,7 +8338,7 @@
     <row r="273" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55535377296855315</v>
+        <v>5.9901657692233878E-2</v>
       </c>
       <c r="B273" s="2">
         <v>305</v>
@@ -8361,7 +8362,7 @@
     <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22441108376598451</v>
+        <v>0.3578090988287379</v>
       </c>
       <c r="B274" s="2">
         <v>145</v>
@@ -8385,7 +8386,7 @@
     <row r="275" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9353409134492976E-2</v>
+        <v>0.46676865424530201</v>
       </c>
       <c r="B275" s="2">
         <v>287</v>
@@ -8406,7 +8407,7 @@
     <row r="276" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10510827115221277</v>
+        <v>0.59038152464578486</v>
       </c>
       <c r="B276" s="2">
         <v>252</v>
@@ -8430,7 +8431,7 @@
     <row r="277" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76047033005409959</v>
+        <v>0.89632347556717695</v>
       </c>
       <c r="B277" s="2">
         <v>300</v>
@@ -8451,7 +8452,7 @@
     <row r="278" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36493220304280427</v>
+        <v>7.454491246482231E-2</v>
       </c>
       <c r="B278" s="2">
         <v>11</v>
@@ -8472,7 +8473,7 @@
     <row r="279" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56326914791532168</v>
+        <v>0.42302049279166387</v>
       </c>
       <c r="B279" s="2">
         <v>165</v>
@@ -8493,7 +8494,7 @@
     <row r="280" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.057962525351726E-2</v>
+        <v>0.32636803192338615</v>
       </c>
       <c r="B280" s="2">
         <v>249</v>
@@ -8514,7 +8515,7 @@
     <row r="281" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34006109021038067</v>
+        <v>0.4584711436779173</v>
       </c>
       <c r="B281" s="2">
         <v>303</v>
@@ -8538,7 +8539,7 @@
     <row r="282" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98486215090633789</v>
+        <v>0.70706716022587768</v>
       </c>
       <c r="B282" s="2">
         <v>265</v>
@@ -8568,7 +8569,7 @@
     <row r="283" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86459041426201932</v>
+        <v>0.69650785876257215</v>
       </c>
       <c r="B283" s="2">
         <v>19</v>
@@ -8589,7 +8590,7 @@
     <row r="284" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4544927339600839E-2</v>
+        <v>0.41822511596022605</v>
       </c>
       <c r="B284" s="2">
         <v>95</v>
@@ -8610,7 +8611,7 @@
     <row r="285" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69056412494888808</v>
+        <v>0.92617988093301173</v>
       </c>
       <c r="B285" s="2">
         <v>215</v>
@@ -8634,7 +8635,7 @@
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84657589890654616</v>
+        <v>0.15401730176210404</v>
       </c>
       <c r="B286" s="2">
         <v>198</v>
@@ -8658,7 +8659,7 @@
     <row r="287" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90216134957749183</v>
+        <v>0.5870957694320329</v>
       </c>
       <c r="B287" s="2">
         <v>137</v>
@@ -8682,7 +8683,7 @@
     <row r="288" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5452479080328767</v>
+        <v>0.23048268572323038</v>
       </c>
       <c r="B288" s="2">
         <v>225</v>
@@ -8703,7 +8704,7 @@
     <row r="289" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36444056873464892</v>
+        <v>0.49907690258525361</v>
       </c>
       <c r="B289" s="2">
         <v>276</v>
@@ -8730,7 +8731,7 @@
     <row r="290" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52369914149330921</v>
+        <v>0.45302425602519447</v>
       </c>
       <c r="B290" s="2">
         <v>51</v>
@@ -8754,7 +8755,7 @@
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56205984273504961</v>
+        <v>0.30290336575094645</v>
       </c>
       <c r="B291" s="2">
         <v>251</v>
@@ -8781,7 +8782,7 @@
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4679095036548736</v>
+        <v>0.92600355827931757</v>
       </c>
       <c r="B292" s="2">
         <v>234</v>
@@ -8808,7 +8809,7 @@
     <row r="293" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63935388041464147</v>
+        <v>0.48143901169586112</v>
       </c>
       <c r="B293" s="2">
         <v>242</v>
@@ -8835,7 +8836,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77532391267890222</v>
+        <v>0.53984784030564559</v>
       </c>
       <c r="B294" s="2">
         <v>246</v>
@@ -8859,7 +8860,7 @@
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65375364870165387</v>
+        <v>0.47202029990918537</v>
       </c>
       <c r="B295" s="2">
         <v>216</v>
@@ -8886,7 +8887,7 @@
     <row r="296" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79469813887016361</v>
+        <v>0.85699272884598166</v>
       </c>
       <c r="B296" s="2">
         <v>62</v>
@@ -8907,7 +8908,7 @@
     <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74218187034783789</v>
+        <v>0.96127609436599259</v>
       </c>
       <c r="B297" s="2">
         <v>36</v>
@@ -8931,7 +8932,7 @@
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99915677561542038</v>
+        <v>0.60843771727954421</v>
       </c>
       <c r="B298" s="2">
         <v>274</v>
@@ -8958,7 +8959,7 @@
     <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30320907149502707</v>
+        <v>6.739634572506259E-3</v>
       </c>
       <c r="B299" s="2">
         <v>176</v>
@@ -8985,7 +8986,7 @@
     <row r="300" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61348607085749374</v>
+        <v>0.42412066966144191</v>
       </c>
       <c r="B300" s="2">
         <v>99</v>
@@ -9009,7 +9010,7 @@
     <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74296683356720261</v>
+        <v>0.67657608791891044</v>
       </c>
       <c r="B301" s="2">
         <v>207</v>
@@ -9033,7 +9034,7 @@
     <row r="302" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4797307665426026</v>
+        <v>0.45371266912191122</v>
       </c>
       <c r="B302" s="2">
         <v>177</v>
@@ -9054,7 +9055,7 @@
     <row r="303" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4344893432358512</v>
+        <v>0.79764140007219853</v>
       </c>
       <c r="B303" s="2">
         <v>128</v>
@@ -9078,7 +9079,7 @@
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59432616785259562</v>
+        <v>0.14874717874483634</v>
       </c>
       <c r="B304" s="2">
         <v>131</v>
@@ -9099,7 +9100,7 @@
     <row r="305" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40941458750074267</v>
+        <v>0.96662570453535712</v>
       </c>
       <c r="B305" s="2">
         <v>121</v>
@@ -9123,7 +9124,7 @@
     <row r="306" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52053048903755705</v>
+        <v>0.99321161667568947</v>
       </c>
       <c r="B306" s="2">
         <v>186</v>
@@ -9147,7 +9148,7 @@
     <row r="307" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59101071450047915</v>
+        <v>0.85043801947904618</v>
       </c>
       <c r="B307" s="2">
         <v>16</v>
@@ -9168,7 +9169,7 @@
     <row r="308" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.673831138685558E-2</v>
+        <v>0.31793697512603236</v>
       </c>
       <c r="B308" s="2">
         <v>228</v>
@@ -9189,7 +9190,7 @@
     <row r="309" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94460840948737645</v>
+        <v>0.59536966499381005</v>
       </c>
       <c r="B309" s="2">
         <v>263</v>
@@ -9210,7 +9211,7 @@
     <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.903362368305253E-2</v>
+        <v>0.59180647466084879</v>
       </c>
       <c r="B310" s="2">
         <v>124</v>
@@ -9320,7 +9321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView topLeftCell="A296" workbookViewId="0">
       <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
